--- a/Android-code.xlsx
+++ b/Android-code.xlsx
@@ -1,31 +1,180 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h_bagheri\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hassan\Desktop\project_hassan\Shoping-\Shoping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17967B92-DFF2-4EF5-8AD1-B59FFA37AB12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EECEC5-B138-4AA6-A635-5A4C7A442B75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kotlin" sheetId="1" r:id="rId1"/>
-    <sheet name="FireBase" sheetId="2" r:id="rId2"/>
-    <sheet name="Java" sheetId="4" r:id="rId3"/>
-    <sheet name="MySQL" sheetId="3" r:id="rId4"/>
-    <sheet name="Other" sheetId="5" r:id="rId5"/>
+    <sheet name="UI" sheetId="7" r:id="rId2"/>
+    <sheet name="Nilo" sheetId="8" r:id="rId3"/>
+    <sheet name="FireBase" sheetId="2" r:id="rId4"/>
+    <sheet name="Lib" sheetId="6" r:id="rId5"/>
+    <sheet name="Java" sheetId="4" r:id="rId6"/>
+    <sheet name="MySQL" sheetId="3" r:id="rId7"/>
+    <sheet name="Other" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>project lib</t>
+  </si>
+  <si>
+    <t>*************plugin*****************
+id 'kotlin-android-extensions'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+dependencies {
+    // Kotlin Libraries
+    implementation fileTree(dir: 'libs', include: ['*.jar'])
+    //noinspection GradleDependency
+    implementation "org.jetbrains.kotlin:kotlin-stdlib-jdk7:$kotlin_version"
+    // AppCompat Library
+    implementation 'androidx.appcompat:appcompat:1.2.0'
+    // Design Library
+    implementation 'androidx.core:core-ktx:1.3.2'
+    implementation 'com.google.android.material:material:1.3.0'
+    implementation 'androidx.annotation:annotation:1.1.0'
+    // Constraint-Layout Library
+    implementation 'androidx.constraintlayout:constraintlayout:2.0.4'
+    // Test Libraries
+    implementation 'androidx.legacy:legacy-support-v4:1.0.0'
+    testImplementation 'junit:junit:4.13.1'
+    androidTestImplementation 'androidx.test:runner:1.3.0'
+    androidTestImplementation 'androidx.test.espresso:espresso-core:3.3.0'
+    // Recycler View Library and CardView
+    //noinspection GradleCompatible
+    implementation 'com.android.support:recyclerview-v7:29.0.0'
+    //noinspection GradleCompatible
+    implementation 'com.android.support:cardview-v7:29.0.0'
+    // Anko Library
+    implementation "org.jetbrains.anko:anko:0.10.8"
+    // Koin for Android
+    implementation 'org.koin:koin-android:1.0.2'
+    // Circle image view
+    implementation 'de.hdodenhof:circleimageview:3.1.0'
+    // Picasso
+    implementation 'com.squareup.picasso:picasso:2.71828'
+    implementation 'com.codesgood:justifiedtextview:1.1.0'
+    // Retrofit Library
+    implementation 'com.squareup.retrofit2:retrofit:2.9.0'
+    implementation 'com.squareup.retrofit2:converter-gson:2.9.0'
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;com.google.android.material.bottomnavigation.BottomNavigationView
+        android:id="@+id/bottomNavigationView"
+        android:layout_width="match_parent"
+        android:layout_height="wrap_content"
+        android:background="@color/telgramcolor"
+        app:itemIconTint="@color/color_select_item_nav"
+        app:itemTextColor="@color/color_select_item_nav"
+        app:menu="@menu/menu_bottom_nav"&gt;</t>
+  </si>
+  <si>
+    <t>BottomNavigationView</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;
+&lt;menu xmlns:android="http://schemas.android.com/apk/res/android"&gt;
+    &lt;item
+        android:id="@+id/item_menu_account"
+        android:icon="@drawable/ic_account"
+        android:title="@string/home_"/&gt;
+    &lt;item
+        android:id="@+id/item_menu_home"
+        android:icon="@drawable/ic_home"
+        android:title="@string/home"/&gt;
+    &lt;item
+        android:id="@+id/item_menu_shop"
+        android:icon="@drawable/ic_shop"
+        android:title="@string/shop"/&gt;
+&lt;/menu&gt;</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>shape 2</t>
+  </si>
+  <si>
+    <t>Shape 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?xml version="1.0" encoding="utf-8"?&gt;
+&lt;shape xmlns:android="http://schemas.android.com/apk/res/android"&gt;
+    &lt;solid
+        android:color="@color/colorGray100"/&gt;
+    &lt;stroke
+        android:color="@color/colorBlack"
+        android:width="1dp"/&gt;
+    &lt;corners
+        android:radius="30dp"/&gt;
+&lt;/shape&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?xml version="1.0" encoding="utf-8"?&gt;
+&lt;shape xmlns:android="http://schemas.android.com/apk/res/android"&gt;
+    &lt;gradient
+        android:angle="90"
+        android:startColor="#616B9C"
+        android:endColor="#162053"/&gt;
+&lt;/shape&gt;
+</t>
+  </si>
+  <si>
+    <t>supportFragmentManager.beginTransaction()
+            .replace(R.id.main_framlayout,fragment)
+            .commit()</t>
+  </si>
+  <si>
+    <t>supportFragmentManager.beginTransaction()
+                .add(R.id.main_framlayout,fragment)
+                .commit()</t>
+  </si>
+  <si>
+    <t>replace fragment</t>
+  </si>
+  <si>
+    <t>add fragment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bottom_nav.menu.getItem(1).isChecked = true</t>
+  </si>
+  <si>
+    <t>ایتم شماره 1 در ابتدا انتخاب شود برای باتم نویگیشن</t>
+  </si>
+  <si>
+    <t>val popup = PopupMenu(context, menu)
+        popup.menuInflater.inflate(R.menu.menu_main, popup.menu)
+        popup.setOnMenuItemClickListener(this)
+        popup.show()</t>
+  </si>
+  <si>
+    <t>میتونیم برای onclick از این PopupMenu.OnMenuItemClickListener
+اینترفیس استفاده کنیم</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59,8 +208,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,6 +517,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="45" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA2AF12-07F6-4588-AB61-35C600F00118}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="76.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0970B109-9FAE-42BD-9219-0150A728E517}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -351,11 +632,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D818EB-F534-41CF-9079-56543D83B985}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -363,7 +644,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E1D300-404D-47F7-A82A-79ECCDEE78B4}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="92.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1"/>
+    <col min="3" max="3" width="38.7109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="9.5703125" style="1"/>
+    <col min="6" max="6" width="73.7109375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4789A43A-0CCC-43B4-811F-064FFE3F7B63}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -375,7 +695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D22EC3-58C7-47DE-8A11-BF63D8177EC5}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -389,7 +709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FCF822-0E3D-40AC-B603-AA711D4A58B0}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Android-code.xlsx
+++ b/Android-code.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hassan\Desktop\project_hassan\Shoping-\Shoping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hassan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EECEC5-B138-4AA6-A635-5A4C7A442B75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756AADCF-AA3F-482F-9BF4-07A5EE95B809}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kotlin" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>project lib</t>
   </si>
@@ -174,6 +174,68 @@
     <t>میتونیم برای onclick از این PopupMenu.OnMenuItemClickListener
 اینترفیس استفاده کنیم</t>
   </si>
+  <si>
+    <t>webView.settings.javaScriptEnabled = true
+        webView.settings.builtInZoomControls = true
+        webView.settings.textZoom = 100
+        webView.webViewClient = WebViewClient()
+        webView.loadUrl(url)</t>
+  </si>
+  <si>
+    <t>Web View</t>
+  </si>
+  <si>
+    <t>if (intent.resolveActivity(context.packageManager) != null)
+                        context.startActivity(intent)</t>
+  </si>
+  <si>
+    <t>اگر اکتیویتیش وجود نداشته باشه استارتش نمیکنه
+از try/cach هم میتونیم استفاده کنیم</t>
+  </si>
+  <si>
+    <t>val view = LayoutInflater.from(context).inflate(R.layout.dialog_call_me, null)
+                AlertDialog.Builder(context)
+                    .setView(view)
+                    .show()</t>
+  </si>
+  <si>
+    <t>AlertDialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    &lt;androidx.appcompat.widget.AppCompatEditText
+        android:id="@+id/edt_text_dialog_failure_report"
+        android:layout_width="0dp"
+        android:layout_height="wrap_content"
+        android:ems="10"
+        android:gravity="top"
+        android:hint="@string/text"
+        android:inputType="textMultiLine"
+        android:lines="3"
+        android:maxLines="10"
+        android:scrollbars="vertical"/&gt;
+        </t>
+  </si>
+  <si>
+    <t>تکست چند خطی</t>
+  </si>
+  <si>
+    <t>&lt;style name="DialogTheme" parent="Theme.AppCompat.Light.Dialog.Alert"&gt;
+        &lt;item name="buttonBarNegativeButtonStyle"&gt;@style/NegativeButton&lt;/item&gt;
+        &lt;item name="buttonBarPositiveButtonStyle"&gt;@style/PositiveButton&lt;/item&gt;
+    &lt;/style&gt;
+ &lt;style name="PositiveButton" parent="Widget.AppCompat.Button.ButtonBar.AlertDialog"&gt;
+        &lt;item name="android:textColor"&gt;@color/colorBlack&lt;/item&gt;
+        &lt;item name="android:textSize"&gt;16sp&lt;/item&gt;
+    &lt;/style&gt;
+&lt;style name="NegativeButton" parent="Widget.AppCompat.Button.ButtonBar.AlertDialog"&gt;
+        &lt;item name="android:textColor"&gt;@color/colorBlack&lt;/item&gt;
+        &lt;item name="android:textSize"&gt;16sp&lt;/item&gt;
+    &lt;/style&gt;</t>
+  </si>
+  <si>
+    <t>برای رنگ به متن Alert Dilog</t>
+  </si>
 </sst>
 </file>
 
@@ -208,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -236,6 +298,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,9 +582,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -533,7 +598,7 @@
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -541,7 +606,7 @@
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -559,6 +624,30 @@
       </c>
       <c r="B4" s="7" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -569,10 +658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA2AF12-07F6-4588-AB61-35C600F00118}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,6 +701,22 @@
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Android-code.xlsx
+++ b/Android-code.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hassan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h_bagheri\Desktop\android\app-shoping-hassan\project\AppShoping-master\AppShoping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756AADCF-AA3F-482F-9BF4-07A5EE95B809}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Kotlin" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="MySQL" sheetId="3" r:id="rId7"/>
     <sheet name="Other" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>project lib</t>
   </si>
@@ -236,11 +235,17 @@
   <si>
     <t>برای رنگ به متن Alert Dilog</t>
   </si>
+  <si>
+    <t>git reset --hard origin/master</t>
+  </si>
+  <si>
+    <t>برای رفت به آخرین کامیت</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -581,7 +586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -657,10 +662,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA2AF12-07F6-4588-AB61-35C600F00118}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -726,7 +731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0970B109-9FAE-42BD-9219-0150A728E517}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -738,7 +743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D818EB-F534-41CF-9079-56543D83B985}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -750,7 +755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E1D300-404D-47F7-A82A-79ECCDEE78B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -789,7 +794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4789A43A-0CCC-43B4-811F-064FFE3F7B63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -801,7 +806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D22EC3-58C7-47DE-8A11-BF63D8177EC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -815,13 +820,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FCF822-0E3D-40AC-B603-AA711D4A58B0}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Android-code.xlsx
+++ b/Android-code.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h_bagheri\Desktop\android\app-shoping-hassan\project\AppShoping-master\AppShoping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hassan\Desktop\project_hassan\Shoping\Shoping\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8E21DD-8DEC-406E-BBC2-5768165C4EE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kotlin" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>project lib</t>
   </si>
@@ -241,11 +242,34 @@
   <si>
     <t>برای رفت به آخرین کامیت</t>
   </si>
+  <si>
+    <t xml:space="preserve">val pref = getSharedPreferences("pref", Context.MODE_PRIVATE)
+pref.getBoolean("login", false)
+</t>
+  </si>
+  <si>
+    <t>getSharedPreferences</t>
+  </si>
+  <si>
+    <t>&lt;style name="fullScreen" parent="Theme.AppCompat.Light.NoActionBar"&gt;
+        &lt;item name="android:windowFullscreen"&gt;true&lt;/item&gt;
+        &lt;item name="windowActionBar"&gt;false&lt;/item&gt;
+    &lt;/style&gt;</t>
+  </si>
+  <si>
+    <t>full screan
+فقط باید در manifest تعریفش کنیم</t>
+  </si>
+  <si>
+    <t>&lt;activity
+            android:name=".activity.LoginActivity"
+            android:theme="@style/fullScreen"/&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -586,11 +610,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,6 +679,14 @@
         <v>24</v>
       </c>
     </row>
+    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -662,21 +694,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="76.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="49.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -684,7 +717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -692,7 +725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -700,7 +733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -708,7 +741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -716,12 +749,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -731,7 +775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -743,7 +787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -755,7 +799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -794,7 +838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -806,7 +850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -820,10 +864,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Android-code.xlsx
+++ b/Android-code.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hassan\Desktop\project_hassan\Shoping\Shoping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h_bagheri\Desktop\android\app-shoping-hassan\project\AppShoping-master\AppShoping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8E21DD-8DEC-406E-BBC2-5768165C4EE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Kotlin" sheetId="1" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>project lib</t>
   </si>
@@ -265,11 +264,26 @@
             android:name=".activity.LoginActivity"
             android:theme="@style/fullScreen"/&gt;</t>
   </si>
+  <si>
+    <t>DROP PROCEDURE IF EXISTS `check_login`;
+CREATE PROCEDURE `check_login`(IN email VARCHAR(200) , IN pass VARCHAR(200))
+BEGIN
+  SELECT * FROM users
+  WHERE users.email COLLATE utf8_unicode_ci = email
+ AND
+ users.password COLLATE utf8_unicode_ci = pass
+ ;
+END;
+CALL check_login('hassan1@gmail.com','123456')</t>
+  </si>
+  <si>
+    <t>PROCEDURE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -610,7 +624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -694,10 +708,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -775,7 +789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -787,7 +801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -799,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -838,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -850,21 +864,34 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="75.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Android-code.xlsx
+++ b/Android-code.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h_bagheri\Desktop\android\app-shoping-hassan\project\AppShoping-master\AppShoping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hassan\Desktop\project_hassan\Shoping\Shoping\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74BBE19-DB83-4A20-9A5F-71C8619015D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kotlin" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>project lib</t>
   </si>
@@ -279,11 +280,36 @@
   <si>
     <t>PROCEDURE</t>
   </si>
+  <si>
+    <t>Recycler Adapter</t>
+  </si>
+  <si>
+    <t>class RecyclerShopAdapter (private val data : List&lt;DataProduct&gt;):
+RecyclerView.Adapter&lt;RecyclerShopAdapter.ShopViewHolder&gt;(){
+    override fun onCreateViewHolder(parent: ViewGroup, viewType: Int) =
+        ShopViewHolder(
+            LayoutInflater.from(parent.context)
+                .inflate(R.layout.item_recycler_shop,
+                parent,
+                false)
+        )
+    override fun onBindViewHolder(holder: ShopViewHolder, position: Int) {
+        holder.setData(data[position])
+    }
+    override fun getItemCount() = data.size
+    inner class ShopViewHolder(itemView: View) : RecyclerView.ViewHolder(itemView), KoinComponent {
+        private val ratingBar = itemView.ratingBar_shop_recycler
+        fun setData(data : DataProduct){
+            txtName.text = data.title
+        }
+    }
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -624,11 +650,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,6 +727,14 @@
         <v>32</v>
       </c>
     </row>
+    <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -708,7 +742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -789,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -801,7 +835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -813,7 +847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -852,7 +886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -864,10 +898,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -891,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Android-code.xlsx
+++ b/Android-code.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hassan\Desktop\project_hassan\Shoping\Shoping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h_bagheri\Desktop\android\app-shoping-hassan\project\AppShoping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74BBE19-DB83-4A20-9A5F-71C8619015D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Kotlin" sheetId="1" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>project lib</t>
   </si>
@@ -305,11 +304,19 @@
     }
 }</t>
   </si>
+  <si>
+    <t>&lt;style name="AlertDialogCustom" parent="Animation.AppCompat.Dialog"&gt;
+        &lt;item name="android:layoutDirection" tools:targetApi="jelly_bean_mr1"&gt;rtl&lt;/item&gt;</t>
+  </si>
+  <si>
+    <t>تکست فارسی برا Alert Dilog
+استایل</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -650,11 +657,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,11 +749,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,6 +823,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -823,7 +838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -835,7 +850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -847,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -886,7 +901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -898,7 +913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -925,7 +940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
